--- a/Data 75%-rf.xlsx
+++ b/Data 75%-rf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raabiyaal Ishaq\OneDrive - The University of Chicago\Desktop\2. RA-SHIP\SUMMER PROJECTS\1.ACLI\Python\75%-rf ex-GFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3540A6D-259A-4250-AF06-DD0D3EBD1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F53B1F-A0BD-4769-BFFB-0B42D8DB669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>`x</t>
+    <t>x – s</t>
   </si>
   <si>
-    <t>`x + s</t>
+    <t>x + s</t>
   </si>
   <si>
-    <t>`x – s</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,13 +427,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
